--- a/data/trans_bre/P54_A_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,19%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,35; 4,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 1,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 2,84</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-19,29; 94,98</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,78; 351,07</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>43,99%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,4; 5,14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 1,74</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-7,68; 140,15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,75; 318,83</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-29,01%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,36%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,09; 2,96</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; -0,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,08; 198,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,1%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,48; 3,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,68</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 1,51</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 74,16</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; 137,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>25,86%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>96,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.461122124861883</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4251809524618712</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.367639669239508</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.2585909203048828</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.002721731994444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 4,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 1,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 2,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,29; 94,98</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 351,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.349210899804453</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1166762386290617</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.01185520213176217</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1928537577428249</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.09328582933111423</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.175688221816168</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.1134048165423</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.914131714926266</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.9498369052547917</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>3.558382105693301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>43,99%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>42,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 5,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 1,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 140,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-52,75; 318,83</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.18829384099096</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4300166582739793</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4399133126402089</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.3702886224102055</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-29,01%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-84,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3987132549326867</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-0.8457826934231109</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.07680221858979773</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.5407115195917026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 2,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; -0,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-81,08; 198,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.138831185421058</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>1.694749763736463</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.401496117232433</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>2.990836694125175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +763,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>27,4%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>32,1%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.322761211597995</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.025916855099327</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2900774350590103</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.8455929919305207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 3,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,68</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 1,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 74,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 137,91</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.089635416511883</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-7.02505497297888</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.8108324194351925</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.962715693913591</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>-0.443367025804162</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.981155049424235</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.438783877294801</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2139884836359589</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4990262400217455</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2740267948819229</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3210401734749968</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4775830927642205</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.05943314204139627</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4855015975555613</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.08064177737568748</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.2496487575044097</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.241778848803565</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6245608266359171</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.542525847323747</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7416131377470605</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>1.360231367776268</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +910,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
